--- a/spreadsheets/Hecarim.xlsx
+++ b/spreadsheets/Hecarim.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\champsgg\completed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4945823-DCAD-4ACB-AD24-AEEF3275176E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0B644B-8AF1-4744-9CB3-6176F6B934E2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35220" yWindow="3390" windowWidth="21525" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -181,9 +181,6 @@
     <t>If you aren't sure for portrait, just send me the picture you want on discord (usephysics#0001)</t>
   </si>
   <si>
-    <t>https://cdn.discordapp.com/attachments/562348314477985817/662460163235643407/IMG_1513.JPG</t>
-  </si>
-  <si>
     <t>Kindred can kite Hecarim very easily, however with ignite and red smite she should be very easy to kill.</t>
   </si>
   <si>
@@ -329,6 +326,9 @@
   </si>
   <si>
     <t>description/bio</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/Hjy5ZL0.png</t>
   </si>
 </sst>
 </file>
@@ -393,10 +393,8 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="major"/>
+      <color theme="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -416,8 +414,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -430,9 +429,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -721,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -759,7 +759,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>9</v>
@@ -778,7 +778,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>20</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>32</v>
@@ -816,46 +816,46 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C12" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C14" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1842,7 +1842,7 @@
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1" xr:uid="{2004A058-089B-4723-8BDD-CFDC16A0CA5A}"/>
     <hyperlink ref="B6" r:id="rId2" xr:uid="{D684FEEA-A4B0-4BEC-B628-D0D7AE9B72B9}"/>
-    <hyperlink ref="B9" r:id="rId3" xr:uid="{5BBC2012-9BD9-4328-8F6F-F2F1D8CA2518}"/>
+    <hyperlink ref="B9" r:id="rId3" xr:uid="{B4558173-DA6B-4BB1-9E87-145C7EEFEAF1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -1854,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2051,45 +2051,45 @@
         <v>6</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18" s="3">
         <v>5</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B19" s="3">
         <v>7</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B20" s="3">
         <v>7</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B21" s="3">
         <v>4</v>
@@ -2097,18 +2097,18 @@
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B22" s="3">
         <v>10</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B23" s="3">
         <v>2</v>
@@ -2116,7 +2116,7 @@
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B24" s="3">
         <v>1</v>
@@ -2124,7 +2124,7 @@
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B25" s="3">
         <v>5</v>
@@ -2132,7 +2132,7 @@
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B26" s="3">
         <v>5</v>
@@ -2140,18 +2140,18 @@
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B27" s="3">
         <v>4</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B28" s="3">
         <v>3</v>
@@ -2159,29 +2159,29 @@
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B29" s="3">
         <v>5</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B30" s="3">
         <v>1</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B31" s="3">
         <v>7</v>
@@ -2189,7 +2189,7 @@
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B32" s="3">
         <v>2</v>
@@ -2197,7 +2197,7 @@
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B33" s="3">
         <v>4</v>
@@ -2205,7 +2205,7 @@
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B34" s="3">
         <v>1</v>
@@ -2213,18 +2213,18 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B35" s="3">
         <v>10</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B36" s="3">
         <v>4</v>
@@ -2232,7 +2232,7 @@
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B37" s="3">
         <v>4</v>
@@ -2240,18 +2240,18 @@
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B38" s="3">
         <v>3</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B39" s="3">
         <v>6</v>
@@ -2259,24 +2259,24 @@
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B40" s="3">
         <v>5</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B41" s="3">
         <v>10</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
